--- a/szenarioDefinition/szenario_parameter.xlsx
+++ b/szenarioDefinition/szenario_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/private/Desktop/Projects/Klimaneutral-20245/szenarioDefinition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9D3F8E-D8EE-9F40-AB80-D27B18096EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24BC7D-DEB8-0243-9616-56264EF9ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2780" windowWidth="28240" windowHeight="17240" xr2:uid="{D2690A5A-EB2F-AE47-8671-6C32A4ECCA13}"/>
   </bookViews>
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,16 +108,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,18 +138,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FEF88-F0C4-A142-B787-61C7CBC8F58C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +515,7 @@
     <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,132 +529,135 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1.129</v>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>1.0449999999999999</v>
+        <v>1.0800718659999999</v>
       </c>
       <c r="D2" s="2">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.0660000000000001</v>
+      <c r="B3" s="3">
+        <v>1.232</v>
       </c>
       <c r="C3" s="4">
-        <v>1.03</v>
+        <v>1.074135684</v>
       </c>
       <c r="D3" s="2">
         <v>2025</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.131</v>
+      <c r="B4" s="3">
+        <v>1.169</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0335000000000001</v>
+        <v>1.0690189189999999</v>
       </c>
       <c r="D4" s="2">
         <v>2026</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.35</v>
       </c>
       <c r="C5" s="4">
-        <v>1.0660000000000001</v>
+        <v>1.0645628600000001</v>
       </c>
       <c r="D5" s="2">
         <v>2027</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.2</v>
       </c>
       <c r="C6" s="4">
-        <v>1.089</v>
+        <v>1.060647297</v>
       </c>
       <c r="D6" s="2">
         <v>2028</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.58974000000000004</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0900000000000001</v>
+        <v>1.057179514</v>
       </c>
       <c r="D7" s="2">
         <v>2029</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.41026000000000001</v>
       </c>
       <c r="C8" s="4">
-        <v>1.02</v>
+        <v>1.0540823509999999</v>
       </c>
       <c r="D8" s="2">
         <v>2030</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1400000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>5999000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.95279000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/szenarioDefinition/szenario_parameter.xlsx
+++ b/szenarioDefinition/szenario_parameter.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/private/Desktop/Projects/Klimaneutral-20245/szenarioDefinition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24BC7D-DEB8-0243-9616-56264EF9ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E6BB19-A4B8-B248-9F05-CB3767C70F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2780" windowWidth="28240" windowHeight="17240" xr2:uid="{D2690A5A-EB2F-AE47-8671-6C32A4ECCA13}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{D2690A5A-EB2F-AE47-8671-6C32A4ECCA13}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Variable</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Wert</t>
+  </si>
+  <si>
+    <t>eauto_zuwachs_pa</t>
   </si>
 </sst>
 </file>
@@ -165,8 +168,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,10 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FEF88-F0C4-A142-B787-61C7CBC8F58C}">
-  <dimension ref="A1:F11"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,7 +647,6 @@
       <c r="B9" s="3">
         <v>1400000</v>
       </c>
-      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -657,6 +662,14 @@
       </c>
       <c r="B11" s="3">
         <v>0.95279000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/szenarioDefinition/szenario_parameter.xlsx
+++ b/szenarioDefinition/szenario_parameter.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/private/Desktop/Projects/Klimaneutral-20245/szenarioDefinition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawhamburgedu-my.sharepoint.com/personal/wcs132_haw-hamburg_de/Documents/REE/IPJ1/SS-Programmieren/Klimaneutral-20245/szenarioDefinition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D24BC7D-DEB8-0243-9616-56264EF9ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8D24BC7D-DEB8-0243-9616-56264EF9ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4438E96D-22A1-42A1-8BE7-82267336376F}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="2780" windowWidth="28240" windowHeight="17240" xr2:uid="{D2690A5A-EB2F-AE47-8671-6C32A4ECCA13}"/>
+    <workbookView xWindow="-16320" yWindow="-1785" windowWidth="16440" windowHeight="28440" xr2:uid="{D2690A5A-EB2F-AE47-8671-6C32A4ECCA13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="2" r:id="rId1"/>
+    <sheet name="Szenario 1 - Best_Best" sheetId="1" r:id="rId2"/>
+    <sheet name="Szenario 2 - aktueller Trend" sheetId="4" r:id="rId3"/>
+    <sheet name="Szenario 3 - Worst_Worst" sheetId="6" r:id="rId4"/>
+    <sheet name="Szenario 4 - Disbalance_1 " sheetId="7" r:id="rId5"/>
+    <sheet name="Szenario 5 - Disbalance_2" sheetId="8" r:id="rId6"/>
+    <sheet name="Szenario 6 - Unflexibel" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>Variable</t>
   </si>
@@ -78,6 +84,12 @@
   </si>
   <si>
     <t>Wert</t>
+  </si>
+  <si>
+    <t>Klimaziel-Analyse</t>
+  </si>
+  <si>
+    <t>Simulationsergebnisse:</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -165,8 +177,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -182,6 +193,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,22 +515,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FEF88-F0C4-A142-B787-61C7CBC8F58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4423A9-50AB-4183-BB4B-501527733A49}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,7 +559,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,7 +574,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -574,7 +589,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -589,7 +604,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +619,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -619,7 +634,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -634,16 +649,15 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>1400000</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -651,7 +665,1007 @@
         <v>5999000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011FEF88-F0C4-A142-B787-61C7CBC8F58C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981EBCD9-B03B-4241-888F-93A270C1915D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2B34F0-4799-4153-9777-9878A9B9479B}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5B922D-E0F1-4E7B-9A78-C3A372252B7B}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832A7042-BB86-4AE6-916A-BFC31CE2B8C8}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95279000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7213DF73-A81D-4B8D-9F79-40A64931028D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0800718659999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.074135684</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.169</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0690189189999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2026</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0645628600000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.060647297</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.58974000000000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.057179514</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.0540823509999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2030</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
